--- a/client/public/fichiers/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE.xlsx
+++ b/client/public/fichiers/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://219295cocerto-my.sharepoint.com/personal/lgombaud_cocerto_fr/Documents/SAUVEGARDE LOCAL LG/MEMOIRE DEC/MEMOIRE/ANNEXE/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{EA70746D-6D4A-4C09-95B3-0FC3C3747FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9535C7EB-76B9-4189-A540-296A4796639A}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{EA70746D-6D4A-4C09-95B3-0FC3C3747FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FC8A03-11C7-4A59-A0FD-F73CF6667E49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="PCG ADAPTE EDP" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PCG ADAPTE EDP'!$A$1:$B$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PCG ADAPTE EDP'!$A$1:$B$198</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="246">
   <si>
     <t>NOTICE</t>
   </si>
@@ -1688,6 +1688,15 @@
   </si>
   <si>
     <t>T - Formation continue - Production</t>
+  </si>
+  <si>
+    <t>M - Taxe sur les salaires - Mutualisé</t>
+  </si>
+  <si>
+    <t>NT - Taxe sur les salaires - Pédagogique</t>
+  </si>
+  <si>
+    <t>T - Taxe sur les salaires - Production</t>
   </si>
 </sst>
 </file>
@@ -2508,10 +2517,10 @@
     <tabColor rgb="FF2E8B57"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C328"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,495 +3649,510 @@
     </row>
     <row r="141" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>63120</v>
+        <v>63110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>63121</v>
+        <v>63111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>63330</v>
+        <v>63112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>63331</v>
+        <v>63120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>63332</v>
+        <v>63121</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>63510</v>
+        <v>63330</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>64110</v>
+        <v>63331</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>64111</v>
+        <v>63332</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>64112</v>
+        <v>63510</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>64120</v>
+        <v>64110</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>64121</v>
+        <v>64111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>64122</v>
+        <v>64112</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>64510</v>
+        <v>64120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>64511</v>
+        <v>64121</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>64512</v>
+        <v>64122</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>66110</v>
+        <v>64510</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>67500</v>
+        <v>64511</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>67510</v>
+        <v>64512</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>67520</v>
+        <v>66110</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>67800</v>
+        <v>67500</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>68110</v>
+        <v>67510</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>68111</v>
+        <v>67520</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>68112</v>
+        <v>67800</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>70600</v>
+        <v>68110</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C164" s="14"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>70601</v>
+        <v>68111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C165" s="14"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>70602</v>
+        <v>68112</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C166" s="14"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>70620</v>
+        <v>70600</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C167" s="14"/>
     </row>
     <row r="168" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>70700</v>
+        <v>70601</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C168" s="14"/>
     </row>
     <row r="169" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>70701</v>
+        <v>70602</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C169" s="14"/>
     </row>
     <row r="170" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>70702</v>
+        <v>70620</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C170" s="14"/>
     </row>
     <row r="171" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>70720</v>
+        <v>70700</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C171" s="14"/>
     </row>
     <row r="172" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>71331</v>
+        <v>70701</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C172" s="14"/>
     </row>
     <row r="173" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>71335</v>
+        <v>70702</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C173" s="14"/>
     </row>
     <row r="174" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>72210</v>
+        <v>70720</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C174" s="14"/>
     </row>
     <row r="175" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>72220</v>
+        <v>71331</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C175" s="14"/>
     </row>
     <row r="176" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>74100</v>
+        <v>71335</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C176" s="14"/>
     </row>
     <row r="177" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>74101</v>
+        <v>72210</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C177" s="14"/>
     </row>
     <row r="178" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>74110</v>
+        <v>72220</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C178" s="14"/>
     </row>
     <row r="179" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>74111</v>
+        <v>74100</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C179" s="14"/>
     </row>
     <row r="180" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>74120</v>
+        <v>74101</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C180" s="14"/>
     </row>
     <row r="181" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>74121</v>
+        <v>74110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C181" s="14"/>
     </row>
     <row r="182" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>74700</v>
+        <v>74111</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C182" s="14"/>
     </row>
     <row r="183" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>74710</v>
+        <v>74120</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C183" s="14"/>
     </row>
     <row r="184" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>74720</v>
+        <v>74121</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C184" s="14"/>
     </row>
     <row r="185" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>75410</v>
+        <v>74700</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C185" s="14"/>
     </row>
     <row r="186" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>75420</v>
+        <v>74710</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C186" s="14"/>
     </row>
     <row r="187" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>75610</v>
+        <v>74720</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C187" s="14"/>
     </row>
     <row r="188" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>75620</v>
+        <v>75410</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C188" s="14"/>
     </row>
     <row r="189" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>77500</v>
+        <v>75420</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C189" s="14"/>
     </row>
     <row r="190" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>77510</v>
+        <v>75610</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C190" s="14"/>
     </row>
     <row r="191" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>77520</v>
+        <v>75620</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C191" s="14"/>
     </row>
     <row r="192" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
+        <v>77500</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C192" s="14"/>
+    </row>
+    <row r="193" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>77510</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C193" s="14"/>
+    </row>
+    <row r="194" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>77520</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="14"/>
+    </row>
+    <row r="195" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
         <v>77800</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C192" s="14"/>
-    </row>
-    <row r="193" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="14"/>
-    </row>
-    <row r="194" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="14"/>
-    </row>
-    <row r="195" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="14"/>
     </row>
-    <row r="196" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="14"/>
     </row>
-    <row r="197" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="14"/>
     </row>
-    <row r="198" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="14"/>
     </row>
-    <row r="199" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="14"/>
     </row>
-    <row r="200" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="14"/>
     </row>
-    <row r="201" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="14"/>
     </row>
-    <row r="202" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="14"/>
     </row>
-    <row r="203" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="14"/>
     </row>
-    <row r="204" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="14"/>
     </row>
-    <row r="205" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="14"/>
     </row>
-    <row r="206" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="14"/>
     </row>
-    <row r="207" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="14"/>
     </row>
-    <row r="208" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="14"/>
     </row>
     <row r="209" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4215,9 +4239,15 @@
     <row r="236" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="14"/>
     </row>
-    <row r="237" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C237" s="14"/>
+    </row>
+    <row r="238" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C238" s="14"/>
+    </row>
+    <row r="239" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C239" s="14"/>
+    </row>
     <row r="240" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="241" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="242" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4304,10 +4334,13 @@
     <row r="323" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="324" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="325" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B195">
-    <sortCondition ref="B2:B195"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
+    <sortCondition ref="B2:B198"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/client/public/fichiers/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE.xlsx
+++ b/client/public/fichiers/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://219295cocerto-my.sharepoint.com/personal/lgombaud_cocerto_fr/Documents/SAUVEGARDE LOCAL LG/MEMOIRE DEC/MEMOIRE/ANNEXE/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{EA70746D-6D4A-4C09-95B3-0FC3C3747FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FC8A03-11C7-4A59-A0FD-F73CF6667E49}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{EA70746D-6D4A-4C09-95B3-0FC3C3747FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BC9FE6-2C8D-4196-93AC-A08C4567355B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notice" sheetId="4" r:id="rId1"/>
     <sheet name="PCG ADAPTE EDP" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PCG ADAPTE EDP'!$A$1:$B$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PCG ADAPTE EDP'!$A$1:$B$199</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="247">
   <si>
     <t>NOTICE</t>
   </si>
@@ -1004,14 +1004,19 @@
   </si>
   <si>
     <r>
-      <t>• Du PCG 2025, via le règlement ANC 2022-06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>• PCG 2025, via le règlement ANC 2022-06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>, applicable à toutes les entités tenues d’établir des comptes annuels.</t>
     </r>
@@ -1534,6 +1539,30 @@
     <t>M - Cotisations syndicales et autres</t>
   </si>
   <si>
+    <t>M - Taxe sur les salaires - Mutualisé</t>
+  </si>
+  <si>
+    <t>NT - Taxe sur les salaires - Pédagogique</t>
+  </si>
+  <si>
+    <t>T - Taxe sur les salaires - Production</t>
+  </si>
+  <si>
+    <t>M - Taxe d’apprentissage - Mutualisé</t>
+  </si>
+  <si>
+    <t>T - Taxe d'apprentissage - Production</t>
+  </si>
+  <si>
+    <t>M - Formation continue - Mutualisé</t>
+  </si>
+  <si>
+    <t>NT - Formation continue - Pédagogique</t>
+  </si>
+  <si>
+    <t>T - Formation continue - Production</t>
+  </si>
+  <si>
     <t>NT - Tva non récupérable</t>
   </si>
   <si>
@@ -1588,6 +1617,9 @@
     <t>T - Dotations aux amortissements sur immobilisations - Production</t>
   </si>
   <si>
+    <t>T - Impôts sur les bénéfices</t>
+  </si>
+  <si>
     <t>T - Prestations de services 5,5%</t>
   </si>
   <si>
@@ -1630,9 +1662,18 @@
     <t>M - Subventions de fonctionnement – Mutualisé</t>
   </si>
   <si>
+    <t>NT - Subventions de fonctionnement – Pédagogique</t>
+  </si>
+  <si>
+    <t>NT - Subventions de fonctionnement avec contrepartie – Pédagogique</t>
+  </si>
+  <si>
     <t>T - Subventions de fonctionnement – Production</t>
   </si>
   <si>
+    <t>T - Subventions de fonctionnement avec contrepartie – Production</t>
+  </si>
+  <si>
     <t>M - QP éléments fonds propres virés compte résultat - Mutualisé</t>
   </si>
   <si>
@@ -1664,46 +1705,13 @@
   </si>
   <si>
     <t>M - Produits exceptionnels divers</t>
-  </si>
-  <si>
-    <t>T - Subventions de fonctionnement avec contrepartie – Production</t>
-  </si>
-  <si>
-    <t>NT - Subventions de fonctionnement avec contrepartie – Pédagogique</t>
-  </si>
-  <si>
-    <t>NT - Subventions de fonctionnement – Pédagogique</t>
-  </si>
-  <si>
-    <t>T - Taxe d'apprentissage - Production</t>
-  </si>
-  <si>
-    <t>M - Taxe d’apprentissage - Mutualisé</t>
-  </si>
-  <si>
-    <t>M - Formation continue - Mutualisé</t>
-  </si>
-  <si>
-    <t>NT - Formation continue - Pédagogique</t>
-  </si>
-  <si>
-    <t>T - Formation continue - Production</t>
-  </si>
-  <si>
-    <t>M - Taxe sur les salaires - Mutualisé</t>
-  </si>
-  <si>
-    <t>NT - Taxe sur les salaires - Pédagogique</t>
-  </si>
-  <si>
-    <t>T - Taxe sur les salaires - Production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,6 +1792,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1847,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1885,6 +1904,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2203,7 +2225,9 @@
   </sheetPr>
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2476,7 +2500,7 @@
     </row>
     <row r="62" spans="1:1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2517,10 +2541,10 @@
     <tabColor rgb="FF2E8B57"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,10 +2554,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3652,7 +3676,7 @@
         <v>63110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,7 +3684,7 @@
         <v>63111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3668,7 +3692,7 @@
         <v>63112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3676,7 +3700,7 @@
         <v>63120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,7 +3708,7 @@
         <v>63121</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,7 +3716,7 @@
         <v>63330</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3700,7 +3724,7 @@
         <v>63331</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,7 +3732,7 @@
         <v>63332</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3716,7 +3740,7 @@
         <v>63510</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3724,7 +3748,7 @@
         <v>64110</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3732,7 +3756,7 @@
         <v>64111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,7 +3764,7 @@
         <v>64112</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3748,7 +3772,7 @@
         <v>64120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3756,7 +3780,7 @@
         <v>64121</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3788,7 @@
         <v>64122</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,7 +3796,7 @@
         <v>64510</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,7 +3804,7 @@
         <v>64511</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,7 +3812,7 @@
         <v>64512</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3796,7 +3820,7 @@
         <v>66110</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3804,7 +3828,7 @@
         <v>67500</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3812,7 +3836,7 @@
         <v>67510</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,7 +3844,7 @@
         <v>67520</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3828,7 +3852,7 @@
         <v>67800</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3836,7 +3860,7 @@
         <v>68110</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3868,7 @@
         <v>68111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3852,271 +3876,276 @@
         <v>68112</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>70600</v>
+        <v>69500</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="14"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>70601</v>
+        <v>70600</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C168" s="14"/>
     </row>
     <row r="169" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>70602</v>
+        <v>70601</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C169" s="14"/>
     </row>
     <row r="170" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>70620</v>
+        <v>70602</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C170" s="14"/>
     </row>
     <row r="171" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>70700</v>
+        <v>70620</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C171" s="14"/>
     </row>
     <row r="172" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>70701</v>
+        <v>70700</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C172" s="14"/>
     </row>
     <row r="173" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>70702</v>
+        <v>70701</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C173" s="14"/>
     </row>
     <row r="174" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>70720</v>
+        <v>70702</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C174" s="14"/>
     </row>
     <row r="175" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>71331</v>
+        <v>70720</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C175" s="14"/>
     </row>
     <row r="176" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>71335</v>
+        <v>71331</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C176" s="14"/>
     </row>
     <row r="177" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>72210</v>
+        <v>71335</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C177" s="14"/>
     </row>
     <row r="178" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>72220</v>
+        <v>72210</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C178" s="14"/>
     </row>
     <row r="179" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>74100</v>
+        <v>72220</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C179" s="14"/>
     </row>
     <row r="180" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>74101</v>
+        <v>74100</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C180" s="14"/>
     </row>
     <row r="181" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>74110</v>
+        <v>74101</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C181" s="14"/>
     </row>
     <row r="182" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>74111</v>
+        <v>74110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C182" s="14"/>
     </row>
     <row r="183" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>74120</v>
+        <v>74111</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C183" s="14"/>
     </row>
     <row r="184" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>74121</v>
+        <v>74120</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C184" s="14"/>
     </row>
     <row r="185" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>74700</v>
+        <v>74121</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C185" s="14"/>
     </row>
     <row r="186" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>74710</v>
+        <v>74700</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C186" s="14"/>
     </row>
     <row r="187" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>74720</v>
+        <v>74710</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C187" s="14"/>
     </row>
     <row r="188" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>75410</v>
+        <v>74720</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C188" s="14"/>
     </row>
     <row r="189" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>75420</v>
+        <v>75410</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C189" s="14"/>
     </row>
     <row r="190" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>75610</v>
+        <v>75420</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C190" s="14"/>
     </row>
     <row r="191" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>75620</v>
+        <v>75610</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C191" s="14"/>
     </row>
     <row r="192" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>77500</v>
+        <v>75620</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C192" s="14"/>
     </row>
     <row r="193" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>77510</v>
+        <v>77500</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C193" s="14"/>
     </row>
     <row r="194" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>77520</v>
+        <v>77510</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C194" s="14"/>
     </row>
     <row r="195" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
+        <v>77520</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C195" s="14"/>
+    </row>
+    <row r="196" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
         <v>77800</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C195" s="14"/>
-    </row>
-    <row r="196" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C196" s="14"/>
     </row>
     <row r="197" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4277,9 @@
     <row r="239" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="14"/>
     </row>
-    <row r="240" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C240" s="14"/>
+    </row>
     <row r="241" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="242" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="243" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4337,10 +4368,11 @@
     <row r="326" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="327" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="328" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
-    <sortCondition ref="B2:B198"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B199">
+    <sortCondition ref="B2:B199"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/client/public/fichiers/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE.xlsx
+++ b/client/public/fichiers/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://219295cocerto-my.sharepoint.com/personal/lgombaud_cocerto_fr/Documents/SAUVEGARDE LOCAL LG/MEMOIRE DEC/MEMOIRE/ANNEXE/ANNEXE 4 - EXEMPLE DE PLAN COMPTABLE ADAPTE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgombaud\Documents\DEF MEMOIRE\ANNEXES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{EA70746D-6D4A-4C09-95B3-0FC3C3747FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BC9FE6-2C8D-4196-93AC-A08C4567355B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27244AFD-4AF7-4417-ACDF-86245FD4F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notice" sheetId="4" r:id="rId1"/>
@@ -2222,12 +2222,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C7EF10-1C2E-4D5A-82B5-5E82855ECD91}">
   <sheetPr codeName="Feuil3">
     <tabColor rgb="FFC9D7F2"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2528,10 +2527,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="22" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2543,8 +2539,8 @@
   </sheetPr>
   <dimension ref="A1:C329"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10200</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>11000</v>
       </c>
@@ -2583,7 +2579,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>12000</v>
       </c>
@@ -2591,7 +2587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>13100</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>13110</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13120</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>13900</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>13910</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>13920</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16400</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16410</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16480</v>
       </c>
@@ -2663,7 +2659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>20500</v>
       </c>
@@ -2671,7 +2667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>20510</v>
       </c>
@@ -2679,7 +2675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>20520</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>21100</v>
       </c>
@@ -2695,7 +2691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>21310</v>
       </c>
@@ -2703,7 +2699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>21350</v>
       </c>
@@ -2711,7 +2707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21520</v>
       </c>
@@ -2719,7 +2715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21810</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21811</v>
       </c>
@@ -2735,7 +2731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21812</v>
       </c>
@@ -2743,7 +2739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21820</v>
       </c>
@@ -2751,7 +2747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21830</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>21831</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21832</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>21840</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>21841</v>
       </c>
@@ -2791,7 +2787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>21842</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>23100</v>
       </c>
@@ -2807,7 +2803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>23110</v>
       </c>
@@ -2815,7 +2811,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>23120</v>
       </c>
@@ -2823,7 +2819,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>27500</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>28051</v>
       </c>
@@ -2839,7 +2835,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>28052</v>
       </c>
@@ -2847,7 +2843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>28131</v>
       </c>
@@ -2855,7 +2851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>28135</v>
       </c>
@@ -2863,7 +2859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>28152</v>
       </c>
@@ -2871,7 +2867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>28181</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>281811</v>
       </c>
@@ -2887,7 +2883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>281812</v>
       </c>
@@ -2895,7 +2891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>28182</v>
       </c>
@@ -2903,7 +2899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>28183</v>
       </c>
@@ -2911,7 +2907,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>281831</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>281832</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>28184</v>
       </c>
@@ -2935,7 +2931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>281841</v>
       </c>
@@ -2943,7 +2939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>281842</v>
       </c>
@@ -2951,7 +2947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>31000</v>
       </c>
@@ -2959,7 +2955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>32200</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>33100</v>
       </c>
@@ -2975,7 +2971,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>33500</v>
       </c>
@@ -2983,7 +2979,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>40100</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>40400</v>
       </c>
@@ -2999,7 +2995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>40810</v>
       </c>
@@ -3007,7 +3003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>40910</v>
       </c>
@@ -3015,7 +3011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>40980</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41100</v>
       </c>
@@ -3031,7 +3027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41600</v>
       </c>
@@ -3039,7 +3035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41800</v>
       </c>
@@ -3047,7 +3043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41910</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41980</v>
       </c>
@@ -3063,7 +3059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42100</v>
       </c>
@@ -3071,7 +3067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42500</v>
       </c>
@@ -3079,7 +3075,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42820</v>
       </c>
@@ -3087,7 +3083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43100</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44100</v>
       </c>
@@ -3103,7 +3099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44210</v>
       </c>
@@ -3111,7 +3107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44400</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44520</v>
       </c>
@@ -3127,7 +3123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44551</v>
       </c>
@@ -3135,7 +3131,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44562</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44566</v>
       </c>
@@ -3151,7 +3147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44567</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44570</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44571</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44572</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44583</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44586</v>
       </c>
@@ -3199,7 +3195,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44587</v>
       </c>
@@ -3207,7 +3203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44810</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44820</v>
       </c>
@@ -3223,7 +3219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>46700</v>
       </c>
@@ -3231,7 +3227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>48600</v>
       </c>
@@ -3239,7 +3235,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>48700</v>
       </c>
@@ -3247,7 +3243,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>51121</v>
       </c>
@@ -3255,7 +3251,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>51122</v>
       </c>
@@ -3263,7 +3259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>51123</v>
       </c>
@@ -3271,7 +3267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>51124</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>51200</v>
       </c>
@@ -3287,7 +3283,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>53000</v>
       </c>
@@ -3295,7 +3291,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>58000</v>
       </c>
@@ -3303,7 +3299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>60100</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>60310</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>60320</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>60410</v>
       </c>
@@ -3335,7 +3331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>60611</v>
       </c>
@@ -3343,7 +3339,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>60626</v>
       </c>
@@ -3351,7 +3347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>60630</v>
       </c>
@@ -3359,7 +3355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>60632</v>
       </c>
@@ -3367,7 +3363,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>60631</v>
       </c>
@@ -3375,7 +3371,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>60640</v>
       </c>
@@ -3383,7 +3379,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>60650</v>
       </c>
@@ -3391,7 +3387,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>60660</v>
       </c>
@@ -3399,7 +3395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>60690</v>
       </c>
@@ -3407,7 +3403,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>61320</v>
       </c>
@@ -3415,7 +3411,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>61340</v>
       </c>
@@ -3423,7 +3419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>61350</v>
       </c>
@@ -3431,7 +3427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>61360</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>61400</v>
       </c>
@@ -3447,7 +3443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>61520</v>
       </c>
@@ -3455,7 +3451,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>61521</v>
       </c>
@@ -3463,7 +3459,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>61522</v>
       </c>
@@ -3471,7 +3467,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>61600</v>
       </c>
@@ -3479,7 +3475,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>61830</v>
       </c>
@@ -3487,7 +3483,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>62110</v>
       </c>
@@ -3495,7 +3491,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>62111</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>62112</v>
       </c>
@@ -3511,7 +3507,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>62260</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>62261</v>
       </c>
@@ -3527,7 +3523,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>62270</v>
       </c>
@@ -3535,7 +3531,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>62310</v>
       </c>
@@ -3543,7 +3539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>62320</v>
       </c>
@@ -3551,7 +3547,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>62340</v>
       </c>
@@ -3559,7 +3555,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>62410</v>
       </c>
@@ -3567,7 +3563,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>62510</v>
       </c>
@@ -3575,7 +3571,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>62520</v>
       </c>
@@ -3583,7 +3579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>62550</v>
       </c>
@@ -3591,7 +3587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>62560</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>62610</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>62620</v>
       </c>
@@ -3615,7 +3611,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>62640</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>62680</v>
       </c>
@@ -3631,7 +3627,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>62710</v>
       </c>
@@ -3639,7 +3635,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>62810</v>
       </c>
@@ -3647,7 +3643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>62830</v>
       </c>
@@ -3655,7 +3651,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>62840</v>
       </c>
@@ -3663,7 +3659,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>62850</v>
       </c>
@@ -3671,7 +3667,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>63110</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>63111</v>
       </c>
@@ -3687,7 +3683,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>63112</v>
       </c>
@@ -3695,7 +3691,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>63120</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>63121</v>
       </c>
@@ -3711,7 +3707,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>63330</v>
       </c>
@@ -3719,7 +3715,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>63331</v>
       </c>
@@ -3727,7 +3723,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>63332</v>
       </c>
@@ -3735,7 +3731,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>63510</v>
       </c>
@@ -3743,7 +3739,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>64110</v>
       </c>
@@ -3751,7 +3747,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>64111</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>64112</v>
       </c>
@@ -3767,7 +3763,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>64120</v>
       </c>
@@ -3775,7 +3771,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64121</v>
       </c>
@@ -3783,7 +3779,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>64122</v>
       </c>
@@ -3791,7 +3787,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>64510</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>64511</v>
       </c>
@@ -3807,7 +3803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>64512</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>66110</v>
       </c>
@@ -3823,7 +3819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>67500</v>
       </c>
@@ -3831,7 +3827,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>67510</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>67520</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>67800</v>
       </c>
@@ -3855,7 +3851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>68110</v>
       </c>
@@ -3863,7 +3859,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>68111</v>
       </c>
@@ -3871,7 +3867,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>68112</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>69500</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>70600</v>
       </c>
@@ -3896,7 +3892,7 @@
       </c>
       <c r="C168" s="14"/>
     </row>
-    <row r="169" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>70601</v>
       </c>
@@ -3905,7 +3901,7 @@
       </c>
       <c r="C169" s="14"/>
     </row>
-    <row r="170" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>70602</v>
       </c>
@@ -3914,7 +3910,7 @@
       </c>
       <c r="C170" s="14"/>
     </row>
-    <row r="171" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>70620</v>
       </c>
@@ -3923,7 +3919,7 @@
       </c>
       <c r="C171" s="14"/>
     </row>
-    <row r="172" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>70700</v>
       </c>
@@ -3932,7 +3928,7 @@
       </c>
       <c r="C172" s="14"/>
     </row>
-    <row r="173" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>70701</v>
       </c>
@@ -3941,7 +3937,7 @@
       </c>
       <c r="C173" s="14"/>
     </row>
-    <row r="174" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>70702</v>
       </c>
@@ -3950,7 +3946,7 @@
       </c>
       <c r="C174" s="14"/>
     </row>
-    <row r="175" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>70720</v>
       </c>
@@ -3959,7 +3955,7 @@
       </c>
       <c r="C175" s="14"/>
     </row>
-    <row r="176" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>71331</v>
       </c>
@@ -3968,7 +3964,7 @@
       </c>
       <c r="C176" s="14"/>
     </row>
-    <row r="177" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>71335</v>
       </c>
@@ -3977,7 +3973,7 @@
       </c>
       <c r="C177" s="14"/>
     </row>
-    <row r="178" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>72210</v>
       </c>
@@ -3986,7 +3982,7 @@
       </c>
       <c r="C178" s="14"/>
     </row>
-    <row r="179" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>72220</v>
       </c>
@@ -3995,7 +3991,7 @@
       </c>
       <c r="C179" s="14"/>
     </row>
-    <row r="180" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>74100</v>
       </c>
@@ -4004,7 +4000,7 @@
       </c>
       <c r="C180" s="14"/>
     </row>
-    <row r="181" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>74101</v>
       </c>
@@ -4013,7 +4009,7 @@
       </c>
       <c r="C181" s="14"/>
     </row>
-    <row r="182" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>74110</v>
       </c>
@@ -4022,7 +4018,7 @@
       </c>
       <c r="C182" s="14"/>
     </row>
-    <row r="183" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>74111</v>
       </c>
@@ -4031,7 +4027,7 @@
       </c>
       <c r="C183" s="14"/>
     </row>
-    <row r="184" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>74120</v>
       </c>
@@ -4040,7 +4036,7 @@
       </c>
       <c r="C184" s="14"/>
     </row>
-    <row r="185" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>74121</v>
       </c>
@@ -4049,7 +4045,7 @@
       </c>
       <c r="C185" s="14"/>
     </row>
-    <row r="186" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>74700</v>
       </c>
@@ -4058,7 +4054,7 @@
       </c>
       <c r="C186" s="14"/>
     </row>
-    <row r="187" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>74710</v>
       </c>
@@ -4067,7 +4063,7 @@
       </c>
       <c r="C187" s="14"/>
     </row>
-    <row r="188" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>74720</v>
       </c>
@@ -4076,7 +4072,7 @@
       </c>
       <c r="C188" s="14"/>
     </row>
-    <row r="189" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>75410</v>
       </c>
@@ -4085,7 +4081,7 @@
       </c>
       <c r="C189" s="14"/>
     </row>
-    <row r="190" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>75420</v>
       </c>
@@ -4094,7 +4090,7 @@
       </c>
       <c r="C190" s="14"/>
     </row>
-    <row r="191" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>75610</v>
       </c>
@@ -4103,7 +4099,7 @@
       </c>
       <c r="C191" s="14"/>
     </row>
-    <row r="192" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>75620</v>
       </c>
@@ -4112,7 +4108,7 @@
       </c>
       <c r="C192" s="14"/>
     </row>
-    <row r="193" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>77500</v>
       </c>
@@ -4121,7 +4117,7 @@
       </c>
       <c r="C193" s="14"/>
     </row>
-    <row r="194" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>77510</v>
       </c>
@@ -4130,7 +4126,7 @@
       </c>
       <c r="C194" s="14"/>
     </row>
-    <row r="195" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>77520</v>
       </c>
@@ -4139,7 +4135,7 @@
       </c>
       <c r="C195" s="14"/>
     </row>
-    <row r="196" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>77800</v>
       </c>
@@ -4377,7 +4373,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>